--- a/excel/机型库-根据算法部修改-回放信号.xlsx
+++ b/excel/机型库-根据算法部修改-回放信号.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机型库1" sheetId="1" r:id="rId1"/>
     <sheet name="机型库" sheetId="2" r:id="rId2"/>
+    <sheet name="所有wifi" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName hidden="true" localSheetId="0" name="_xlnm._FilterDatabase">机型库1!$A$1:$AH$616</definedName>
-    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">机型库!$A$1:$AH$110</definedName>
+    <definedName hidden="true" localSheetId="1" name="_xlnm._FilterDatabase">机型库!$A$1:$AH$53</definedName>
+    <definedName hidden="true" localSheetId="2" name="_xlnm._FilterDatabase">所有wifi!$A$1:$AH$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21448" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23594" uniqueCount="2336">
   <si>
     <t>ID (命名：协议-子协议-品牌-机型-频段-详细频率)</t>
   </si>
@@ -8056,7 +8058,7 @@
   <dimension ref="A1:AH616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A240" sqref="$A240:$XFD398"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -49369,7 +49371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:34">
+    <row r="398" hidden="1" spans="1:34">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -72148,11 +72150,15 @@
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AH616" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
-      <filters>
-        <filter val="YUNEEC(昊翔)"/>
-        <filter val="YUNK(云科)"/>
-        <filter val="XK"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="YUNEEC(昊翔)"/>
+        <customFilter operator="equal" val="YUNK(云科)"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="ieee_80211"/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="9">
       <filters>
@@ -72406,17 +72412,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD15"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1047972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="true" max="3" min="3" width="21.5"/>
-    <col customWidth="true" max="4" min="4" width="19.375"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" t="s">
@@ -72527,46 +72529,46 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>888</v>
       </c>
       <c r="C2" t="s">
-        <v>650</v>
+        <v>888</v>
       </c>
       <c r="D2" t="s">
-        <v>651</v>
+        <v>889</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>652</v>
+        <v>890</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>653</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>654</v>
+        <v>891</v>
       </c>
       <c r="J2" t="s">
-        <v>655</v>
+        <v>892</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>656</v>
+        <v>893</v>
       </c>
       <c r="M2" t="s">
-        <v>657</v>
+        <v>894</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>658</v>
+        <v>895</v>
       </c>
       <c r="P2" t="s">
         <v>44</v>
@@ -72584,7 +72586,7 @@
         <v>195</v>
       </c>
       <c r="U2" t="s">
-        <v>659</v>
+        <v>896</v>
       </c>
       <c r="V2" t="s">
         <v>34</v>
@@ -72631,49 +72633,49 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>1211</v>
+        <v>888</v>
       </c>
       <c r="C3" t="s">
-        <v>1211</v>
+        <v>888</v>
       </c>
       <c r="D3" t="s">
-        <v>1212</v>
+        <v>905</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>1213</v>
+        <v>906</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
       <c r="I3" t="s">
-        <v>1214</v>
+        <v>907</v>
       </c>
       <c r="J3" t="s">
-        <v>1215</v>
+        <v>908</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>1216</v>
+        <v>909</v>
       </c>
       <c r="M3" t="s">
-        <v>1217</v>
+        <v>910</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>1218</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>410</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
         <v>34</v>
@@ -72685,10 +72687,10 @@
         <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>1212</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
         <v>34</v>
@@ -72706,16 +72708,16 @@
         <v>624</v>
       </c>
       <c r="AA3" t="s">
-        <v>1219</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
         <v>34</v>
       </c>
       <c r="AC3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s">
         <v>34</v>
@@ -72741,13 +72743,13 @@
         <v>888</v>
       </c>
       <c r="D4" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
@@ -72756,25 +72758,25 @@
         <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>891</v>
+        <v>912</v>
       </c>
       <c r="J4" t="s">
-        <v>892</v>
+        <v>913</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="M4" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>895</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
         <v>44</v>
@@ -72789,10 +72791,10 @@
         <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>896</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
         <v>34</v>
@@ -72816,10 +72818,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="s">
         <v>34</v>
@@ -72839,46 +72841,46 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>988</v>
       </c>
       <c r="C5" t="s">
-        <v>888</v>
+        <v>988</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>989</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>906</v>
+        <v>990</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>465</v>
+        <v>846</v>
       </c>
       <c r="I5" t="s">
-        <v>907</v>
+        <v>991</v>
       </c>
       <c r="J5" t="s">
-        <v>908</v>
+        <v>992</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>909</v>
+        <v>993</v>
       </c>
       <c r="M5" t="s">
-        <v>910</v>
+        <v>994</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>995</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -72893,10 +72895,10 @@
         <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="V5" t="s">
         <v>34</v>
@@ -72920,10 +72922,10 @@
         <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="AE5" t="s">
         <v>34</v>
@@ -72943,19 +72945,19 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>988</v>
       </c>
       <c r="C6" t="s">
-        <v>888</v>
+        <v>988</v>
       </c>
       <c r="D6" t="s">
-        <v>911</v>
+        <v>996</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>906</v>
+        <v>990</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
@@ -72964,25 +72966,25 @@
         <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>912</v>
+        <v>997</v>
       </c>
       <c r="J6" t="s">
-        <v>913</v>
+        <v>998</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>903</v>
+        <v>999</v>
       </c>
       <c r="M6" t="s">
-        <v>904</v>
+        <v>1000</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>1001</v>
       </c>
       <c r="P6" t="s">
         <v>44</v>
@@ -72997,10 +72999,10 @@
         <v>45</v>
       </c>
       <c r="T6" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="V6" t="s">
         <v>34</v>
@@ -73024,10 +73026,10 @@
         <v>34</v>
       </c>
       <c r="AC6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AD6" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="AE6" t="s">
         <v>34</v>
@@ -73053,40 +73055,40 @@
         <v>988</v>
       </c>
       <c r="D7" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>846</v>
+        <v>455</v>
       </c>
       <c r="I7" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="J7" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="M7" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
@@ -73104,7 +73106,7 @@
         <v>195</v>
       </c>
       <c r="U7" t="s">
-        <v>533</v>
+        <v>1002</v>
       </c>
       <c r="V7" t="s">
         <v>34</v>
@@ -73157,40 +73159,40 @@
         <v>988</v>
       </c>
       <c r="D8" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>455</v>
       </c>
       <c r="I8" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="J8" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="M8" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
@@ -73208,7 +73210,7 @@
         <v>195</v>
       </c>
       <c r="U8" t="s">
-        <v>533</v>
+        <v>1010</v>
       </c>
       <c r="V8" t="s">
         <v>34</v>
@@ -73261,40 +73263,40 @@
         <v>988</v>
       </c>
       <c r="D9" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
+        <v>820</v>
       </c>
       <c r="I9" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="J9" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="M9" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="P9" t="s">
         <v>44</v>
@@ -73312,7 +73314,7 @@
         <v>195</v>
       </c>
       <c r="U9" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
       <c r="V9" t="s">
         <v>34</v>
@@ -73365,40 +73367,40 @@
         <v>988</v>
       </c>
       <c r="D10" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>455</v>
+        <v>1027</v>
       </c>
       <c r="I10" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="J10" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="M10" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="P10" t="s">
         <v>44</v>
@@ -73416,7 +73418,7 @@
         <v>195</v>
       </c>
       <c r="U10" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="V10" t="s">
         <v>34</v>
@@ -73469,40 +73471,40 @@
         <v>988</v>
       </c>
       <c r="D11" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>820</v>
+        <v>455</v>
       </c>
       <c r="I11" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="J11" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="M11" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="P11" t="s">
         <v>44</v>
@@ -73520,7 +73522,7 @@
         <v>195</v>
       </c>
       <c r="U11" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="V11" t="s">
         <v>34</v>
@@ -73573,40 +73575,40 @@
         <v>988</v>
       </c>
       <c r="D12" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="E12" t="s">
         <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>1027</v>
+        <v>455</v>
       </c>
       <c r="I12" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="J12" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="M12" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
@@ -73624,7 +73626,7 @@
         <v>195</v>
       </c>
       <c r="U12" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="V12" t="s">
         <v>34</v>
@@ -73663,6 +73665,1272 @@
         <v>34</v>
       </c>
       <c r="AH12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AH53"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I3" t="s">
+        <v>654</v>
+      </c>
+      <c r="J3" t="s">
+        <v>655</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>656</v>
+      </c>
+      <c r="M3" t="s">
+        <v>657</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>658</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>195</v>
+      </c>
+      <c r="U3" t="s">
+        <v>659</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>670</v>
+      </c>
+      <c r="J4" t="s">
+        <v>671</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>672</v>
+      </c>
+      <c r="M4" t="s">
+        <v>673</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>674</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>195</v>
+      </c>
+      <c r="U4" t="s">
+        <v>675</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I5" t="s">
+        <v>688</v>
+      </c>
+      <c r="J5" t="s">
+        <v>689</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>690</v>
+      </c>
+      <c r="M5" t="s">
+        <v>691</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>692</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>195</v>
+      </c>
+      <c r="U5" t="s">
+        <v>693</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>697</v>
+      </c>
+      <c r="J6" t="s">
+        <v>698</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>699</v>
+      </c>
+      <c r="M6" t="s">
+        <v>700</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>701</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>195</v>
+      </c>
+      <c r="U6" t="s">
+        <v>702</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D7" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>708</v>
+      </c>
+      <c r="M7" t="s">
+        <v>709</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>710</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" t="s">
+        <v>195</v>
+      </c>
+      <c r="U7" t="s">
+        <v>711</v>
+      </c>
+      <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>694</v>
+      </c>
+      <c r="D8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>705</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>712</v>
+      </c>
+      <c r="J8" t="s">
+        <v>713</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>714</v>
+      </c>
+      <c r="M8" t="s">
+        <v>709</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>710</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" t="s">
+        <v>195</v>
+      </c>
+      <c r="U8" t="s">
+        <v>711</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>716</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>653</v>
+      </c>
+      <c r="I9" t="s">
+        <v>717</v>
+      </c>
+      <c r="J9" t="s">
+        <v>718</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>719</v>
+      </c>
+      <c r="M9" t="s">
+        <v>720</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>721</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U9" t="s">
+        <v>722</v>
+      </c>
+      <c r="V9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -73670,103 +74938,103 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>988</v>
-      </c>
-      <c r="C13" t="s">
-        <v>988</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F13" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>455</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U13" t="s">
-        <v>1040</v>
-      </c>
-      <c r="V13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W13" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="U13" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z13" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="Z13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AE13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -73774,103 +75042,103 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>988</v>
-      </c>
-      <c r="C14" t="s">
-        <v>988</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F14" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>455</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1044</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1047</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="V14" t="s">
-        <v>34</v>
-      </c>
-      <c r="W14" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="U14" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="Z14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AE14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH14" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -73878,108 +75146,5414 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1553</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1554</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1555</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1556</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U15" t="s">
-        <v>1557</v>
-      </c>
-      <c r="V15" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" t="s">
-        <v>34</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="U19" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C21" t="s">
+        <v>809</v>
+      </c>
+      <c r="D21" t="s">
+        <v>818</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>819</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>820</v>
+      </c>
+      <c r="I21" t="s">
+        <v>821</v>
+      </c>
+      <c r="J21" t="s">
+        <v>822</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>823</v>
+      </c>
+      <c r="M21" t="s">
+        <v>824</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" t="s">
+        <v>825</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" t="s">
+        <v>195</v>
+      </c>
+      <c r="U21" t="s">
+        <v>826</v>
+      </c>
+      <c r="V21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>809</v>
+      </c>
+      <c r="C22" t="s">
+        <v>809</v>
+      </c>
+      <c r="D22" t="s">
+        <v>827</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>828</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
+        <v>829</v>
+      </c>
+      <c r="J22" t="s">
+        <v>830</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" t="s">
+        <v>831</v>
+      </c>
+      <c r="M22" t="s">
+        <v>832</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>833</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s">
+        <v>195</v>
+      </c>
+      <c r="U22" t="s">
+        <v>827</v>
+      </c>
+      <c r="V22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" t="s">
+        <v>34</v>
+      </c>
+      <c r="X22" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C23" t="s">
+        <v>843</v>
+      </c>
+      <c r="D23" t="s">
+        <v>844</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>845</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>846</v>
+      </c>
+      <c r="I23" t="s">
+        <v>847</v>
+      </c>
+      <c r="J23" t="s">
+        <v>848</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>849</v>
+      </c>
+      <c r="M23" t="s">
+        <v>850</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>851</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" t="s">
+        <v>195</v>
+      </c>
+      <c r="U23" t="s">
+        <v>533</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>843</v>
+      </c>
+      <c r="C24" t="s">
+        <v>843</v>
+      </c>
+      <c r="D24" t="s">
+        <v>844</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>845</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>852</v>
+      </c>
+      <c r="J24" t="s">
+        <v>853</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" t="s">
+        <v>854</v>
+      </c>
+      <c r="M24" t="s">
+        <v>850</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>851</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" t="s">
+        <v>195</v>
+      </c>
+      <c r="U24" t="s">
+        <v>533</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>843</v>
+      </c>
+      <c r="C25" t="s">
+        <v>843</v>
+      </c>
+      <c r="D25" t="s">
+        <v>855</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>845</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>455</v>
+      </c>
+      <c r="I25" t="s">
+        <v>856</v>
+      </c>
+      <c r="J25" t="s">
+        <v>857</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>858</v>
+      </c>
+      <c r="M25" t="s">
+        <v>859</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>860</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" t="s">
+        <v>195</v>
+      </c>
+      <c r="U25" t="s">
+        <v>533</v>
+      </c>
+      <c r="V25" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X25" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>843</v>
+      </c>
+      <c r="C26" t="s">
+        <v>843</v>
+      </c>
+      <c r="D26" t="s">
+        <v>861</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>845</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I26" t="s">
+        <v>862</v>
+      </c>
+      <c r="J26" t="s">
+        <v>863</v>
+      </c>
+      <c r="K26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" t="s">
+        <v>864</v>
+      </c>
+      <c r="M26" t="s">
+        <v>865</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
+        <v>866</v>
+      </c>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" t="s">
+        <v>195</v>
+      </c>
+      <c r="U26" t="s">
+        <v>533</v>
+      </c>
+      <c r="V26" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" t="s">
+        <v>34</v>
+      </c>
+      <c r="X26" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>867</v>
+      </c>
+      <c r="C27" t="s">
+        <v>867</v>
+      </c>
+      <c r="D27" t="s">
+        <v>876</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>877</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" t="s">
+        <v>878</v>
+      </c>
+      <c r="J27" t="s">
+        <v>879</v>
+      </c>
+      <c r="K27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>880</v>
+      </c>
+      <c r="M27" t="s">
+        <v>872</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" t="s">
+        <v>881</v>
+      </c>
+      <c r="P27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>195</v>
+      </c>
+      <c r="U27" t="s">
+        <v>882</v>
+      </c>
+      <c r="V27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>34</v>
+      </c>
+      <c r="X27" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>888</v>
+      </c>
+      <c r="C28" t="s">
+        <v>888</v>
+      </c>
+      <c r="D28" t="s">
+        <v>889</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>890</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>891</v>
+      </c>
+      <c r="J28" t="s">
+        <v>892</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>893</v>
+      </c>
+      <c r="M28" t="s">
+        <v>894</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>895</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" t="s">
+        <v>195</v>
+      </c>
+      <c r="U28" t="s">
+        <v>896</v>
+      </c>
+      <c r="V28" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>888</v>
+      </c>
+      <c r="C29" t="s">
+        <v>888</v>
+      </c>
+      <c r="D29" t="s">
+        <v>905</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>906</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>465</v>
+      </c>
+      <c r="I29" t="s">
+        <v>907</v>
+      </c>
+      <c r="J29" t="s">
+        <v>908</v>
+      </c>
+      <c r="K29" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" t="s">
+        <v>909</v>
+      </c>
+      <c r="M29" t="s">
+        <v>910</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>888</v>
+      </c>
+      <c r="C30" t="s">
+        <v>888</v>
+      </c>
+      <c r="D30" t="s">
+        <v>911</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>906</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" t="s">
+        <v>912</v>
+      </c>
+      <c r="J30" t="s">
+        <v>913</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" t="s">
+        <v>903</v>
+      </c>
+      <c r="M30" t="s">
+        <v>904</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X30" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:34">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:34">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:34">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:34">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:34">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C36" t="s">
+        <v>988</v>
+      </c>
+      <c r="D36" t="s">
+        <v>989</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>990</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>846</v>
+      </c>
+      <c r="I36" t="s">
+        <v>991</v>
+      </c>
+      <c r="J36" t="s">
+        <v>992</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>993</v>
+      </c>
+      <c r="M36" t="s">
+        <v>994</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>995</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>34</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" t="s">
+        <v>195</v>
+      </c>
+      <c r="U36" t="s">
+        <v>533</v>
+      </c>
+      <c r="V36" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" t="s">
+        <v>34</v>
+      </c>
+      <c r="X36" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>988</v>
+      </c>
+      <c r="C37" t="s">
+        <v>988</v>
+      </c>
+      <c r="D37" t="s">
+        <v>996</v>
+      </c>
+      <c r="E37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
+        <v>990</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" t="s">
+        <v>997</v>
+      </c>
+      <c r="J37" t="s">
+        <v>998</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>999</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>34</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" t="s">
+        <v>195</v>
+      </c>
+      <c r="U37" t="s">
+        <v>533</v>
+      </c>
+      <c r="V37" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>988</v>
+      </c>
+      <c r="C38" t="s">
+        <v>988</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>455</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>195</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="V38" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" t="s">
+        <v>34</v>
+      </c>
+      <c r="X38" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>988</v>
+      </c>
+      <c r="C39" t="s">
+        <v>988</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>455</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>34</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="s">
+        <v>195</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="V39" t="s">
+        <v>34</v>
+      </c>
+      <c r="W39" t="s">
+        <v>34</v>
+      </c>
+      <c r="X39" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>988</v>
+      </c>
+      <c r="C40" t="s">
+        <v>988</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>820</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="s">
+        <v>195</v>
+      </c>
+      <c r="U40" t="s">
+        <v>1024</v>
+      </c>
+      <c r="V40" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>988</v>
+      </c>
+      <c r="C41" t="s">
+        <v>988</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N41" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>34</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="s">
+        <v>195</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="V41" t="s">
+        <v>34</v>
+      </c>
+      <c r="W41" t="s">
+        <v>34</v>
+      </c>
+      <c r="X41" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>988</v>
+      </c>
+      <c r="C42" t="s">
+        <v>988</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s">
+        <v>455</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>34</v>
+      </c>
+      <c r="R42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="s">
+        <v>195</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1040</v>
+      </c>
+      <c r="V42" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" t="s">
+        <v>34</v>
+      </c>
+      <c r="X42" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>988</v>
+      </c>
+      <c r="C43" t="s">
+        <v>988</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" t="s">
+        <v>455</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" t="s">
+        <v>195</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V43" t="s">
+        <v>34</v>
+      </c>
+      <c r="W43" t="s">
+        <v>34</v>
+      </c>
+      <c r="X43" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>455</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N44" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>34</v>
+      </c>
+      <c r="R44" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44" t="s">
+        <v>195</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V44" t="s">
+        <v>34</v>
+      </c>
+      <c r="W44" t="s">
+        <v>34</v>
+      </c>
+      <c r="X44" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N45" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" t="s">
+        <v>195</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1075</v>
+      </c>
+      <c r="V45" t="s">
+        <v>34</v>
+      </c>
+      <c r="W45" t="s">
+        <v>34</v>
+      </c>
+      <c r="X45" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" t="s">
+        <v>195</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="V46" t="s">
+        <v>34</v>
+      </c>
+      <c r="W46" t="s">
+        <v>34</v>
+      </c>
+      <c r="X46" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N47" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" t="s">
+        <v>92</v>
+      </c>
+      <c r="T47" t="s">
+        <v>195</v>
+      </c>
+      <c r="U47" t="s">
+        <v>1075</v>
+      </c>
+      <c r="V47" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" t="s">
+        <v>34</v>
+      </c>
+      <c r="X47" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N48" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>34</v>
+      </c>
+      <c r="R48" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" t="s">
+        <v>195</v>
+      </c>
+      <c r="U48" t="s">
+        <v>533</v>
+      </c>
+      <c r="V48" t="s">
+        <v>34</v>
+      </c>
+      <c r="W48" t="s">
+        <v>34</v>
+      </c>
+      <c r="X48" t="s">
         <v>452</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y48" t="s">
         <v>486</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>256</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N49" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1100</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>34</v>
+      </c>
+      <c r="R49" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49" t="s">
+        <v>195</v>
+      </c>
+      <c r="U49" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V49" t="s">
+        <v>34</v>
+      </c>
+      <c r="W49" t="s">
+        <v>34</v>
+      </c>
+      <c r="X49" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N50" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" t="s">
+        <v>195</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V50" t="s">
+        <v>34</v>
+      </c>
+      <c r="W50" t="s">
+        <v>34</v>
+      </c>
+      <c r="X50" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" t="s">
+        <v>45</v>
+      </c>
+      <c r="S51" t="s">
+        <v>45</v>
+      </c>
+      <c r="T51" t="s">
+        <v>195</v>
+      </c>
+      <c r="U51" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51" t="s">
+        <v>34</v>
+      </c>
+      <c r="X51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s">
+        <v>455</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N52" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52" t="s">
+        <v>195</v>
+      </c>
+      <c r="U52" t="s">
+        <v>1124</v>
+      </c>
+      <c r="V52" t="s">
+        <v>34</v>
+      </c>
+      <c r="W52" t="s">
+        <v>34</v>
+      </c>
+      <c r="X52" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s">
+        <v>455</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="N53" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1138</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>34</v>
+      </c>
+      <c r="R53" t="s">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53" t="s">
+        <v>195</v>
+      </c>
+      <c r="U53" t="s">
+        <v>1132</v>
+      </c>
+      <c r="V53" t="s">
+        <v>34</v>
+      </c>
+      <c r="W53" t="s">
+        <v>34</v>
+      </c>
+      <c r="X53" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1153</v>
+      </c>
+      <c r="P54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s">
+        <v>195</v>
+      </c>
+      <c r="U54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="V54" t="s">
+        <v>34</v>
+      </c>
+      <c r="W54" t="s">
+        <v>34</v>
+      </c>
+      <c r="X54" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s">
+        <v>884</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N55" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" t="s">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s">
+        <v>195</v>
+      </c>
+      <c r="U55" t="s">
+        <v>1168</v>
+      </c>
+      <c r="V55" t="s">
+        <v>34</v>
+      </c>
+      <c r="W55" t="s">
+        <v>34</v>
+      </c>
+      <c r="X55" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" t="s">
+        <v>74</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s">
+        <v>34</v>
+      </c>
+      <c r="U56" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56" t="s">
+        <v>34</v>
+      </c>
+      <c r="W56" t="s">
+        <v>34</v>
+      </c>
+      <c r="X56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" t="s">
+        <v>820</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N57" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>34</v>
+      </c>
+      <c r="R57" t="s">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s">
+        <v>195</v>
+      </c>
+      <c r="U57" t="s">
+        <v>1208</v>
+      </c>
+      <c r="V57" t="s">
+        <v>34</v>
+      </c>
+      <c r="W57" t="s">
+        <v>34</v>
+      </c>
+      <c r="X57" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s">
+        <v>322</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1217</v>
+      </c>
+      <c r="N58" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P58" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>34</v>
+      </c>
+      <c r="R58" t="s">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s">
+        <v>45</v>
+      </c>
+      <c r="T58" t="s">
+        <v>195</v>
+      </c>
+      <c r="U58" t="s">
+        <v>1212</v>
+      </c>
+      <c r="V58" t="s">
+        <v>34</v>
+      </c>
+      <c r="W58" t="s">
+        <v>34</v>
+      </c>
+      <c r="X58" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1247</v>
+      </c>
+      <c r="N59" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>34</v>
+      </c>
+      <c r="R59" t="s">
+        <v>45</v>
+      </c>
+      <c r="S59" t="s">
+        <v>45</v>
+      </c>
+      <c r="T59" t="s">
+        <v>195</v>
+      </c>
+      <c r="U59" t="s">
+        <v>1249</v>
+      </c>
+      <c r="V59" t="s">
+        <v>34</v>
+      </c>
+      <c r="W59" t="s">
+        <v>34</v>
+      </c>
+      <c r="X59" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s">
+        <v>425</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1257</v>
+      </c>
+      <c r="P60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" t="s">
+        <v>45</v>
+      </c>
+      <c r="T60" t="s">
+        <v>195</v>
+      </c>
+      <c r="U60" t="s">
+        <v>1258</v>
+      </c>
+      <c r="V60" t="s">
+        <v>34</v>
+      </c>
+      <c r="W60" t="s">
+        <v>34</v>
+      </c>
+      <c r="X60" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>425</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1272</v>
+      </c>
+      <c r="P61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" t="s">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s">
+        <v>34</v>
+      </c>
+      <c r="T61" t="s">
+        <v>34</v>
+      </c>
+      <c r="U61" t="s">
+        <v>34</v>
+      </c>
+      <c r="V61" t="s">
+        <v>34</v>
+      </c>
+      <c r="W61" t="s">
+        <v>34</v>
+      </c>
+      <c r="X61" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D62" t="s">
+        <v>533</v>
+      </c>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>846</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" t="s">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s">
+        <v>34</v>
+      </c>
+      <c r="T62" t="s">
+        <v>195</v>
+      </c>
+      <c r="U62" t="s">
+        <v>1273</v>
+      </c>
+      <c r="V62" t="s">
+        <v>34</v>
+      </c>
+      <c r="W62" t="s">
+        <v>34</v>
+      </c>
+      <c r="X62" t="s">
         <v>46</v>
       </c>
-      <c r="AA15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="Y62" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>884</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K63" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>34</v>
+      </c>
+      <c r="R63" t="s">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s">
+        <v>34</v>
+      </c>
+      <c r="T63" t="s">
+        <v>195</v>
+      </c>
+      <c r="U63" t="s">
+        <v>1280</v>
+      </c>
+      <c r="V63" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" t="s">
+        <v>34</v>
+      </c>
+      <c r="X63" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s">
         <v>92</v>
       </c>
-      <c r="AE15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AE63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s">
+        <v>170</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P64" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>34</v>
+      </c>
+      <c r="R64" t="s">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U64" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V64" t="s">
+        <v>34</v>
+      </c>
+      <c r="W64" t="s">
+        <v>34</v>
+      </c>
+      <c r="X64" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" t="s">
+        <v>390</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>34</v>
+      </c>
+      <c r="R65" t="s">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s">
+        <v>195</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V65" t="s">
+        <v>34</v>
+      </c>
+      <c r="W65" t="s">
+        <v>34</v>
+      </c>
+      <c r="X65" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" t="s">
+        <v>390</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1804</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>34</v>
+      </c>
+      <c r="R66" t="s">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s">
+        <v>34</v>
+      </c>
+      <c r="T66" t="s">
+        <v>34</v>
+      </c>
+      <c r="U66" t="s">
+        <v>34</v>
+      </c>
+      <c r="V66" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" t="s">
+        <v>34</v>
+      </c>
+      <c r="X66" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH66" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH110"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AH66" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
